--- a/biology/Botanique/Hippuridaceae/Hippuridaceae.xlsx
+++ b/biology/Botanique/Hippuridaceae/Hippuridaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Hippuridaceae est constituée de plantes dicotylédones. Dans la classification de Cronquist elle comprend 1-3 espèces du genre Hippuris L.
 Ce sont des plantes herbacées, aquatiques ou des zones humides, fixées, pérennes, rhizomateuses à feuilles émergentes, des régions froides à tempérées principalement de l'hémisphère sud.
-En classification phylogénétique APG II (2003)[1] et en classification phylogénétique APG III (2009)[2] cette famille est invalide et ses genres sont incorporés dans la famille Plantaginaceae tribu Hippurideae.
+En classification phylogénétique APG II (2003) et en classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Plantaginaceae tribu Hippurideae.
 </t>
         </is>
       </c>
